--- a/SeleniumPrograms/src/test/resources/Data.xlsx
+++ b/SeleniumPrograms/src/test/resources/Data.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ashish\Workspace\SeleniumRecordings\FileHandling\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E095DD7-FEB7-4CA3-BC24-6417FCC9F996}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="1380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="PurchaseProductTest" sheetId="2" r:id="rId2"/>
     <sheet name="CartTest" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A6:K7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,10 +443,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -520,8 +515,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{F49AC114-33FE-4EB7-8D32-E1AE2D793AB9}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{11CF76CA-6E34-41EA-BEA7-747031F4A915}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -529,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9859B978-8EB5-418D-9E0E-39B9E8420A31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EAD382-CEAB-4769-9966-43120C891A74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
